--- a/Data/Input/Summary_Template.xlsx
+++ b/Data/Input/Summary_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55648C\Documents\SOK_GIT\P0001_090_PayCyleQueries_Dispatcher\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E51BFE-A01D-4BBA-9D82-65A0A3FCA757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0CE0AD-8BA4-4AA2-956E-17F4A74AE7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Manual Query / Bot Query</t>
   </si>
@@ -44,12 +44,15 @@
   <si>
     <t>Details</t>
   </si>
+  <si>
+    <t>Report ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +91,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,11 +164,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,141 +464,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A36" sqref="A36:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="70.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="70.28515625" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
